--- a/biology/Botanique/Hydnora/Hydnora.xlsx
+++ b/biology/Botanique/Hydnora/Hydnora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hydnora est un genre de plantes à fleurs de la famille des Aristolochiaceae. Cette parasite de Fabaceae est originaire d'Afrique, de Madagascar, et de la péninsule Arabique.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du genre Hydnora dérive du Grec ancien ὕδνον (« truffe »)[5],[6], en raison de la structure somatique de ce parasite racinaire[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre Hydnora dérive du Grec ancien ὕδνον (« truffe ») en raison de la structure somatique de ce parasite racinaire.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Génomique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'un des plus petits génomes de plastes parmi les plantes à fleurs a été trouvé dans le genre Hydnora[8]. Par rapport au génome chloroplastique de ses parents photosynthétiques les plus proches, le plastome d'Hydnora visseri montre une réduction extrême à la fois de la taille (environ 27 kilo paires de bases) et du contenu en gènes (24 gènes semblent être fonctionnels)[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'un des plus petits génomes de plastes parmi les plantes à fleurs a été trouvé dans le genre Hydnora. Par rapport au génome chloroplastique de ses parents photosynthétiques les plus proches, le plastome d'Hydnora visseri montre une réduction extrême à la fois de la taille (environ 27 kilo paires de bases) et du contenu en gènes (24 gènes semblent être fonctionnels).
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Ethnobotanique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hydnora abyssinica est vendue sur les marchés d'herbes d'Afrique australe au Mozambique[10] et en Afrique du Sud[11]. En Afrique du Sud, les Xhosa utiliseraient une fine pâte de rhizome d'Hydnora en poudre pour traiter l'acné et d'autres affections cutanées[12]. En Ouganda, les Hydnora spp. seraient utilisés comme aliments (fruits) et médicaments (rhizomes) contre la diarrhée, l'hypertension et le diabète[13] bien que ces affirmations n'aient pas été confirmées.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hydnora abyssinica est vendue sur les marchés d'herbes d'Afrique australe au Mozambique et en Afrique du Sud. En Afrique du Sud, les Xhosa utiliseraient une fine pâte de rhizome d'Hydnora en poudre pour traiter l'acné et d'autres affections cutanées. En Ouganda, les Hydnora spp. seraient utilisés comme aliments (fruits) et médicaments (rhizomes) contre la diarrhée, l'hypertension et le diabète bien que ces affirmations n'aient pas été confirmées.
 </t>
         </is>
       </c>
@@ -604,12 +622,14 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces suivantes sont répertoriées dans le gendre Hydnora[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces suivantes sont répertoriées dans le gendre Hydnora :
 Hydnora abyssinica A.Br. - Oman, Yémen, Arabie saoudite; S + C + SE + E Afrique Érythrée + Soudan à la Namibiee + KwaZulu-Natal
 Hydnora africana Thunb. - Angola, Namibie, Province du Cap
-Hydnora arabica[14]Bolin &amp; Musselman - Oman &amp; Yémen
+Hydnora arabicaBolin &amp; Musselman - Oman &amp; Yémen
 Hydnora esculenta Jum. &amp; H.Perrier - Madagascar
 Hydnora sinandevu Beentje &amp; Q.Luke - Kenya, Tanzanie
 Hydnora triceps Drège &amp; E.Mey. - Cap-Nord, Namibie
